--- a/Adventurers-Inc/Assets/Data/Races/LevelInfo_Races.xlsx
+++ b/Adventurers-Inc/Assets/Data/Races/LevelInfo_Races.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\Adventurers-Inc\Adventurers-Inc\Assets\Data\Races\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Dropbox\GameProjects\AdventurersInc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -49,9 +49,6 @@
     <t>minDexterity</t>
   </si>
   <si>
-    <t>maxDetxerity</t>
-  </si>
-  <si>
     <t>minIntelligence</t>
   </si>
   <si>
@@ -62,6 +59,9 @@
   </si>
   <si>
     <t>maxCharisma</t>
+  </si>
+  <si>
+    <t>maxDexterity</t>
   </si>
 </sst>
 </file>
@@ -395,8 +395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,19 +427,19 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -491,7 +491,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,19 +522,19 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -586,7 +586,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,19 +617,19 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
